--- a/TaiLieu/02.Table_Layout.xlsx
+++ b/TaiLieu/02.Table_Layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen\Documents\GitHub\qlbh\TaiLieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB323C2-A704-42E1-A149-B66FDBE4D2AF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9FAF54-B0EC-40B2-99BD-52073D5D8A44}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="308">
   <si>
     <t>History Of Change</t>
   </si>
@@ -1047,6 +1047,9 @@
   </si>
   <si>
     <t>Thông tin thanh toán</t>
+  </si>
+  <si>
+    <t>Các danh mục dùng chung như: nhóm hàng, đơn vị…</t>
   </si>
 </sst>
 </file>
@@ -1459,7 +1462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1667,6 +1670,9 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1691,6 +1697,60 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1701,60 +1761,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -2084,13 +2090,13 @@
       <c r="C2" s="29"/>
     </row>
     <row r="5" spans="3:9" ht="21" customHeight="1">
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
       <c r="H5" s="11"/>
       <c r="I5" s="72"/>
     </row>
@@ -2119,7 +2125,7 @@
       <c r="E7" s="36"/>
       <c r="F7" s="34"/>
       <c r="G7" s="37"/>
-      <c r="H7" s="80"/>
+      <c r="H7" s="81"/>
       <c r="I7" s="72"/>
     </row>
     <row r="8" spans="3:9" ht="15.35">
@@ -2128,7 +2134,7 @@
       <c r="E8" s="40"/>
       <c r="F8" s="38"/>
       <c r="G8" s="41"/>
-      <c r="H8" s="81"/>
+      <c r="H8" s="82"/>
       <c r="I8" s="74"/>
     </row>
     <row r="9" spans="3:9" ht="15.35">
@@ -2137,7 +2143,7 @@
       <c r="E9" s="40"/>
       <c r="F9" s="38"/>
       <c r="G9" s="41"/>
-      <c r="H9" s="81"/>
+      <c r="H9" s="82"/>
       <c r="I9" s="74"/>
     </row>
     <row r="10" spans="3:9" ht="15.35">
@@ -2146,7 +2152,7 @@
       <c r="E10" s="38"/>
       <c r="F10" s="38"/>
       <c r="G10" s="41"/>
-      <c r="H10" s="81"/>
+      <c r="H10" s="82"/>
       <c r="I10" s="74"/>
     </row>
     <row r="11" spans="3:9" ht="36.75" customHeight="1">
@@ -2155,7 +2161,7 @@
       <c r="E11" s="40"/>
       <c r="F11" s="38"/>
       <c r="G11" s="41"/>
-      <c r="H11" s="81"/>
+      <c r="H11" s="82"/>
       <c r="I11" s="74"/>
     </row>
     <row r="12" spans="3:9" ht="15.35">
@@ -2164,7 +2170,7 @@
       <c r="E12" s="43"/>
       <c r="F12" s="43"/>
       <c r="G12" s="45"/>
-      <c r="H12" s="82"/>
+      <c r="H12" s="83"/>
       <c r="I12" s="73"/>
     </row>
     <row r="13" spans="3:9" ht="15.35">
@@ -2173,7 +2179,7 @@
       <c r="E13" s="36"/>
       <c r="F13" s="34"/>
       <c r="G13" s="37"/>
-      <c r="H13" s="83"/>
+      <c r="H13" s="84"/>
       <c r="I13" s="72"/>
     </row>
     <row r="14" spans="3:9" ht="15.35">
@@ -2182,7 +2188,7 @@
       <c r="E14" s="38"/>
       <c r="F14" s="38"/>
       <c r="G14" s="41"/>
-      <c r="H14" s="83"/>
+      <c r="H14" s="84"/>
       <c r="I14" s="74"/>
     </row>
     <row r="15" spans="3:9" ht="15.35">
@@ -2191,7 +2197,7 @@
       <c r="E15" s="40"/>
       <c r="F15" s="38"/>
       <c r="G15" s="41"/>
-      <c r="H15" s="83"/>
+      <c r="H15" s="84"/>
       <c r="I15" s="74"/>
     </row>
     <row r="16" spans="3:9" ht="15.35">
@@ -2200,7 +2206,7 @@
       <c r="E16" s="38"/>
       <c r="F16" s="38"/>
       <c r="G16" s="41"/>
-      <c r="H16" s="83"/>
+      <c r="H16" s="84"/>
       <c r="I16" s="74"/>
     </row>
     <row r="17" spans="3:9" ht="15.35">
@@ -2209,7 +2215,7 @@
       <c r="E17" s="40"/>
       <c r="F17" s="38"/>
       <c r="G17" s="41"/>
-      <c r="H17" s="83"/>
+      <c r="H17" s="84"/>
       <c r="I17" s="74"/>
     </row>
     <row r="18" spans="3:9" ht="15.35">
@@ -2218,7 +2224,7 @@
       <c r="E18" s="38"/>
       <c r="F18" s="38"/>
       <c r="G18" s="41"/>
-      <c r="H18" s="83"/>
+      <c r="H18" s="84"/>
       <c r="I18" s="74"/>
     </row>
     <row r="19" spans="3:9" ht="15.35">
@@ -2227,7 +2233,7 @@
       <c r="E19" s="40"/>
       <c r="F19" s="38"/>
       <c r="G19" s="41"/>
-      <c r="H19" s="83"/>
+      <c r="H19" s="84"/>
       <c r="I19" s="74"/>
     </row>
     <row r="20" spans="3:9" ht="15.35">
@@ -2236,7 +2242,7 @@
       <c r="E20" s="38"/>
       <c r="F20" s="38"/>
       <c r="G20" s="41"/>
-      <c r="H20" s="83"/>
+      <c r="H20" s="84"/>
       <c r="I20" s="74"/>
     </row>
     <row r="21" spans="3:9" ht="15.35">
@@ -2245,7 +2251,7 @@
       <c r="E21" s="40"/>
       <c r="F21" s="38"/>
       <c r="G21" s="41"/>
-      <c r="H21" s="83"/>
+      <c r="H21" s="84"/>
       <c r="I21" s="74"/>
     </row>
     <row r="22" spans="3:9" ht="15.35">
@@ -2254,7 +2260,7 @@
       <c r="E22" s="38"/>
       <c r="F22" s="38"/>
       <c r="G22" s="41"/>
-      <c r="H22" s="83"/>
+      <c r="H22" s="84"/>
       <c r="I22" s="74"/>
     </row>
     <row r="23" spans="3:9" ht="15.35">
@@ -2263,7 +2269,7 @@
       <c r="E23" s="40"/>
       <c r="F23" s="38"/>
       <c r="G23" s="41"/>
-      <c r="H23" s="83"/>
+      <c r="H23" s="84"/>
       <c r="I23" s="74"/>
     </row>
     <row r="24" spans="3:9" ht="15.35">
@@ -2272,7 +2278,7 @@
       <c r="E24" s="43"/>
       <c r="F24" s="43"/>
       <c r="G24" s="45"/>
-      <c r="H24" s="83"/>
+      <c r="H24" s="84"/>
       <c r="I24" s="73"/>
     </row>
     <row r="25" spans="3:9" ht="15.35">
@@ -2299,7 +2305,7 @@
       <c r="E27" s="50"/>
       <c r="F27" s="51"/>
       <c r="G27" s="37"/>
-      <c r="H27" s="84"/>
+      <c r="H27" s="85"/>
       <c r="I27" s="72"/>
     </row>
     <row r="28" spans="3:9" ht="15.35">
@@ -2308,7 +2314,7 @@
       <c r="E28" s="53"/>
       <c r="F28" s="54"/>
       <c r="G28" s="41"/>
-      <c r="H28" s="85"/>
+      <c r="H28" s="86"/>
       <c r="I28" s="74"/>
     </row>
     <row r="29" spans="3:9" ht="15.35">
@@ -2317,7 +2323,7 @@
       <c r="E29" s="53"/>
       <c r="F29" s="54"/>
       <c r="G29" s="41"/>
-      <c r="H29" s="85"/>
+      <c r="H29" s="86"/>
       <c r="I29" s="74"/>
     </row>
     <row r="30" spans="3:9" ht="15.35">
@@ -2326,7 +2332,7 @@
       <c r="E30" s="53"/>
       <c r="F30" s="54"/>
       <c r="G30" s="41"/>
-      <c r="H30" s="85"/>
+      <c r="H30" s="86"/>
       <c r="I30" s="74"/>
     </row>
     <row r="31" spans="3:9" ht="15.35">
@@ -2335,7 +2341,7 @@
       <c r="E31" s="56"/>
       <c r="F31" s="54"/>
       <c r="G31" s="41"/>
-      <c r="H31" s="85"/>
+      <c r="H31" s="86"/>
       <c r="I31" s="74"/>
     </row>
     <row r="32" spans="3:9" ht="15.35">
@@ -2344,7 +2350,7 @@
       <c r="E32" s="58"/>
       <c r="F32" s="59"/>
       <c r="G32" s="60"/>
-      <c r="H32" s="84"/>
+      <c r="H32" s="85"/>
       <c r="I32" s="72"/>
     </row>
     <row r="33" spans="3:9" ht="15.35">
@@ -2353,7 +2359,7 @@
       <c r="E33" s="58"/>
       <c r="F33" s="61"/>
       <c r="G33" s="60"/>
-      <c r="H33" s="85"/>
+      <c r="H33" s="86"/>
       <c r="I33" s="74"/>
     </row>
     <row r="34" spans="3:9" ht="15.35">
@@ -2362,7 +2368,7 @@
       <c r="E34" s="58"/>
       <c r="F34" s="61"/>
       <c r="G34" s="63"/>
-      <c r="H34" s="85"/>
+      <c r="H34" s="86"/>
       <c r="I34" s="74"/>
     </row>
     <row r="35" spans="3:9" ht="15.35">
@@ -2371,7 +2377,7 @@
       <c r="E35" s="58"/>
       <c r="F35" s="61"/>
       <c r="G35" s="64"/>
-      <c r="H35" s="85"/>
+      <c r="H35" s="86"/>
       <c r="I35" s="74"/>
     </row>
     <row r="36" spans="3:9" ht="15.35">
@@ -2380,7 +2386,7 @@
       <c r="E36" s="65"/>
       <c r="F36" s="66"/>
       <c r="G36" s="67"/>
-      <c r="H36" s="86"/>
+      <c r="H36" s="87"/>
       <c r="I36" s="73"/>
     </row>
     <row r="37" spans="3:9" ht="15.35">
@@ -2428,10 +2434,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:F304"/>
+  <dimension ref="A2:F305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B77" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+    <sheetView tabSelected="1" topLeftCell="B172" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J185" sqref="J185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14"/>
@@ -2449,40 +2455,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="22.35">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
     </row>
     <row r="4" spans="1:6" ht="15">
-      <c r="A4" s="93">
+      <c r="A4" s="103">
         <v>1</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="108"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="91"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A5" s="94"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
@@ -2500,7 +2506,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="94"/>
+      <c r="A6" s="104"/>
       <c r="B6" s="6">
         <v>1</v>
       </c>
@@ -2518,7 +2524,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="94"/>
+      <c r="A7" s="104"/>
       <c r="B7" s="6">
         <v>2</v>
       </c>
@@ -2536,7 +2542,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A8" s="94"/>
+      <c r="A8" s="104"/>
       <c r="B8" s="6">
         <v>3</v>
       </c>
@@ -2554,7 +2560,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="94"/>
+      <c r="A9" s="104"/>
       <c r="B9" s="6">
         <v>4</v>
       </c>
@@ -2572,7 +2578,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="94"/>
+      <c r="A10" s="104"/>
       <c r="B10" s="6">
         <v>5</v>
       </c>
@@ -2590,7 +2596,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="94"/>
+      <c r="A11" s="104"/>
       <c r="B11" s="6">
         <v>6</v>
       </c>
@@ -2608,7 +2614,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="94"/>
+      <c r="A12" s="104"/>
       <c r="B12" s="6">
         <v>7</v>
       </c>
@@ -2624,7 +2630,7 @@
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="94"/>
+      <c r="A13" s="104"/>
       <c r="B13" s="6">
         <v>8</v>
       </c>
@@ -2640,7 +2646,7 @@
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="94"/>
+      <c r="A14" s="104"/>
       <c r="B14" s="6">
         <v>9</v>
       </c>
@@ -2656,7 +2662,7 @@
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="94"/>
+      <c r="A15" s="104"/>
       <c r="B15" s="6">
         <v>10</v>
       </c>
@@ -2674,7 +2680,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="94"/>
+      <c r="A16" s="104"/>
       <c r="B16" s="6">
         <v>11</v>
       </c>
@@ -2692,7 +2698,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="95"/>
+      <c r="A17" s="105"/>
       <c r="B17" s="6">
         <v>12</v>
       </c>
@@ -2708,19 +2714,19 @@
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A18" s="87">
+      <c r="A18" s="106">
         <v>2</v>
       </c>
-      <c r="B18" s="100" t="s">
+      <c r="B18" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="97"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A19" s="87"/>
+      <c r="A19" s="106"/>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
@@ -2738,7 +2744,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="87"/>
+      <c r="A20" s="106"/>
       <c r="B20" s="6">
         <v>1</v>
       </c>
@@ -2756,7 +2762,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="87"/>
+      <c r="A21" s="106"/>
       <c r="B21" s="6">
         <v>2</v>
       </c>
@@ -2774,7 +2780,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="87"/>
+      <c r="A22" s="106"/>
       <c r="B22" s="6">
         <v>3</v>
       </c>
@@ -2792,7 +2798,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="87"/>
+      <c r="A23" s="106"/>
       <c r="B23" s="6">
         <v>4</v>
       </c>
@@ -2810,19 +2816,19 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A24" s="87">
+      <c r="A24" s="106">
         <v>3</v>
       </c>
-      <c r="B24" s="100" t="s">
+      <c r="B24" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A25" s="87"/>
+      <c r="A25" s="106"/>
       <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
@@ -2840,7 +2846,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="87"/>
+      <c r="A26" s="106"/>
       <c r="B26" s="6">
         <v>1</v>
       </c>
@@ -2858,7 +2864,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="87"/>
+      <c r="A27" s="106"/>
       <c r="B27" s="6">
         <v>2</v>
       </c>
@@ -2876,7 +2882,7 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="87"/>
+      <c r="A28" s="106"/>
       <c r="B28" s="6">
         <v>3</v>
       </c>
@@ -2894,7 +2900,7 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="87"/>
+      <c r="A29" s="106"/>
       <c r="B29" s="6">
         <v>4</v>
       </c>
@@ -2912,7 +2918,7 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="87"/>
+      <c r="A30" s="106"/>
       <c r="B30" s="6">
         <v>4</v>
       </c>
@@ -2930,19 +2936,19 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A31" s="87">
+      <c r="A31" s="106">
         <v>4</v>
       </c>
-      <c r="B31" s="100" t="s">
+      <c r="B31" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="97"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="97"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A32" s="87"/>
+      <c r="A32" s="106"/>
       <c r="B32" s="5" t="s">
         <v>10</v>
       </c>
@@ -2960,7 +2966,7 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="87"/>
+      <c r="A33" s="106"/>
       <c r="B33" s="6">
         <v>1</v>
       </c>
@@ -2978,7 +2984,7 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="87"/>
+      <c r="A34" s="106"/>
       <c r="B34" s="6">
         <v>2</v>
       </c>
@@ -2996,7 +3002,7 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="87"/>
+      <c r="A35" s="106"/>
       <c r="B35" s="6">
         <v>3</v>
       </c>
@@ -3014,7 +3020,7 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="87"/>
+      <c r="A36" s="106"/>
       <c r="B36" s="6">
         <v>4</v>
       </c>
@@ -3032,7 +3038,7 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="87"/>
+      <c r="A37" s="106"/>
       <c r="B37" s="6">
         <v>5</v>
       </c>
@@ -3046,7 +3052,7 @@
       <c r="F37" s="8"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="87"/>
+      <c r="A38" s="106"/>
       <c r="B38" s="6">
         <v>6</v>
       </c>
@@ -3064,19 +3070,19 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1">
-      <c r="A39" s="87">
+      <c r="A39" s="106">
         <v>5</v>
       </c>
-      <c r="B39" s="99" t="s">
+      <c r="B39" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="99"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="100"/>
+      <c r="C39" s="94"/>
+      <c r="D39" s="94"/>
+      <c r="E39" s="94"/>
+      <c r="F39" s="92"/>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1">
-      <c r="A40" s="87"/>
+      <c r="A40" s="106"/>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
@@ -3094,7 +3100,7 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="87"/>
+      <c r="A41" s="106"/>
       <c r="B41" s="6">
         <v>1</v>
       </c>
@@ -3112,7 +3118,7 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="87"/>
+      <c r="A42" s="106"/>
       <c r="B42" s="6">
         <v>2</v>
       </c>
@@ -3130,7 +3136,7 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="87"/>
+      <c r="A43" s="106"/>
       <c r="B43" s="6">
         <v>3</v>
       </c>
@@ -3148,7 +3154,7 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="87"/>
+      <c r="A44" s="106"/>
       <c r="B44" s="6">
         <v>4</v>
       </c>
@@ -3164,7 +3170,7 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="87"/>
+      <c r="A45" s="106"/>
       <c r="B45" s="6">
         <v>5</v>
       </c>
@@ -3176,7 +3182,7 @@
       <c r="F45" s="8"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="87"/>
+      <c r="A46" s="106"/>
       <c r="B46" s="6">
         <v>6</v>
       </c>
@@ -3188,7 +3194,7 @@
       <c r="F46" s="8"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="87"/>
+      <c r="A47" s="106"/>
       <c r="B47" s="6">
         <v>7</v>
       </c>
@@ -3200,7 +3206,7 @@
       <c r="F47" s="8"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="87"/>
+      <c r="A48" s="106"/>
       <c r="B48" s="6">
         <v>8</v>
       </c>
@@ -3216,7 +3222,7 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="87"/>
+      <c r="A49" s="106"/>
       <c r="B49" s="6">
         <v>9</v>
       </c>
@@ -3234,7 +3240,7 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="87"/>
+      <c r="A50" s="106"/>
       <c r="B50" s="6">
         <v>10</v>
       </c>
@@ -3248,7 +3254,7 @@
       <c r="F50" s="10"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="87"/>
+      <c r="A51" s="106"/>
       <c r="B51" s="6">
         <v>11</v>
       </c>
@@ -3262,7 +3268,7 @@
       <c r="F51" s="8"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="87"/>
+      <c r="A52" s="106"/>
       <c r="B52" s="6">
         <v>12</v>
       </c>
@@ -3276,7 +3282,7 @@
       <c r="F52" s="11"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="87"/>
+      <c r="A53" s="106"/>
       <c r="B53" s="6">
         <v>13</v>
       </c>
@@ -3290,7 +3296,7 @@
       <c r="F53" s="11"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="87"/>
+      <c r="A54" s="106"/>
       <c r="B54" s="6">
         <v>14</v>
       </c>
@@ -3304,7 +3310,7 @@
       <c r="F54" s="11"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="87"/>
+      <c r="A55" s="106"/>
       <c r="B55" s="6">
         <v>15</v>
       </c>
@@ -3318,7 +3324,7 @@
       <c r="F55" s="11"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="87"/>
+      <c r="A56" s="106"/>
       <c r="B56" s="6">
         <v>16</v>
       </c>
@@ -3332,7 +3338,7 @@
       <c r="F56" s="11"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="87"/>
+      <c r="A57" s="106"/>
       <c r="B57" s="6">
         <v>17</v>
       </c>
@@ -3346,7 +3352,7 @@
       <c r="F57" s="11"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="87"/>
+      <c r="A58" s="106"/>
       <c r="B58" s="6">
         <v>18</v>
       </c>
@@ -3360,7 +3366,7 @@
       <c r="F58" s="11"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="87"/>
+      <c r="A59" s="106"/>
       <c r="B59" s="6">
         <v>19</v>
       </c>
@@ -3374,7 +3380,7 @@
       <c r="F59" s="11"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="87"/>
+      <c r="A60" s="106"/>
       <c r="B60" s="6">
         <v>20</v>
       </c>
@@ -3390,7 +3396,7 @@
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="87"/>
+      <c r="A61" s="106"/>
       <c r="B61" s="6">
         <v>21</v>
       </c>
@@ -3404,7 +3410,7 @@
       <c r="F61" s="8"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="87"/>
+      <c r="A62" s="106"/>
       <c r="B62" s="6">
         <v>22</v>
       </c>
@@ -3418,7 +3424,7 @@
       <c r="F62" s="8"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="87"/>
+      <c r="A63" s="106"/>
       <c r="B63" s="6">
         <v>23</v>
       </c>
@@ -3432,19 +3438,19 @@
       <c r="F63" s="11"/>
     </row>
     <row r="64" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A64" s="87">
+      <c r="A64" s="106">
         <v>6</v>
       </c>
-      <c r="B64" s="103" t="s">
+      <c r="B64" s="95" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="104"/>
-      <c r="D64" s="104"/>
-      <c r="E64" s="104"/>
-      <c r="F64" s="104"/>
+      <c r="C64" s="96"/>
+      <c r="D64" s="96"/>
+      <c r="E64" s="96"/>
+      <c r="F64" s="96"/>
     </row>
     <row r="65" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A65" s="87"/>
+      <c r="A65" s="106"/>
       <c r="B65" s="5" t="s">
         <v>10</v>
       </c>
@@ -3462,7 +3468,7 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="87"/>
+      <c r="A66" s="106"/>
       <c r="B66" s="6">
         <v>1</v>
       </c>
@@ -3480,7 +3486,7 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="87"/>
+      <c r="A67" s="106"/>
       <c r="B67" s="6">
         <v>2</v>
       </c>
@@ -3498,7 +3504,7 @@
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="87"/>
+      <c r="A68" s="106"/>
       <c r="B68" s="6">
         <v>3</v>
       </c>
@@ -3516,7 +3522,7 @@
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="87"/>
+      <c r="A69" s="106"/>
       <c r="B69" s="6">
         <v>4</v>
       </c>
@@ -3534,7 +3540,7 @@
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="87"/>
+      <c r="A70" s="106"/>
       <c r="B70" s="6">
         <v>5</v>
       </c>
@@ -3552,7 +3558,7 @@
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="87"/>
+      <c r="A71" s="106"/>
       <c r="B71" s="14">
         <v>6</v>
       </c>
@@ -3570,19 +3576,19 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A72" s="87">
+      <c r="A72" s="106">
         <v>7</v>
       </c>
-      <c r="B72" s="100" t="s">
+      <c r="B72" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="97"/>
-      <c r="D72" s="97"/>
-      <c r="E72" s="97"/>
-      <c r="F72" s="97"/>
+      <c r="C72" s="93"/>
+      <c r="D72" s="93"/>
+      <c r="E72" s="93"/>
+      <c r="F72" s="93"/>
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A73" s="87"/>
+      <c r="A73" s="106"/>
       <c r="B73" s="5" t="s">
         <v>10</v>
       </c>
@@ -3600,7 +3606,7 @@
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="87"/>
+      <c r="A74" s="106"/>
       <c r="B74" s="6">
         <v>1</v>
       </c>
@@ -3616,7 +3622,7 @@
       <c r="F74" s="8"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="87"/>
+      <c r="A75" s="106"/>
       <c r="B75" s="6">
         <v>2</v>
       </c>
@@ -3632,7 +3638,7 @@
       <c r="F75" s="8"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="87"/>
+      <c r="A76" s="106"/>
       <c r="B76" s="6">
         <v>3</v>
       </c>
@@ -3650,7 +3656,7 @@
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="87"/>
+      <c r="A77" s="106"/>
       <c r="B77" s="6">
         <v>4</v>
       </c>
@@ -3668,7 +3674,7 @@
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="87"/>
+      <c r="A78" s="106"/>
       <c r="B78" s="6">
         <v>5</v>
       </c>
@@ -3686,7 +3692,7 @@
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="87"/>
+      <c r="A79" s="106"/>
       <c r="B79" s="6">
         <v>7</v>
       </c>
@@ -3700,7 +3706,7 @@
       <c r="F79" s="8"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="87"/>
+      <c r="A80" s="106"/>
       <c r="B80" s="6">
         <v>8</v>
       </c>
@@ -3716,7 +3722,7 @@
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="87"/>
+      <c r="A81" s="106"/>
       <c r="B81" s="6">
         <v>9</v>
       </c>
@@ -3732,7 +3738,7 @@
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="87"/>
+      <c r="A82" s="106"/>
       <c r="B82" s="6">
         <v>10</v>
       </c>
@@ -3748,7 +3754,7 @@
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="87"/>
+      <c r="A83" s="106"/>
       <c r="B83" s="6">
         <v>11</v>
       </c>
@@ -3766,7 +3772,7 @@
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="87"/>
+      <c r="A84" s="106"/>
       <c r="B84" s="6">
         <v>12</v>
       </c>
@@ -3780,7 +3786,7 @@
       <c r="F84" s="8"/>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="87"/>
+      <c r="A85" s="106"/>
       <c r="B85" s="6">
         <v>13</v>
       </c>
@@ -3792,7 +3798,7 @@
       <c r="F85" s="8"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="87"/>
+      <c r="A86" s="106"/>
       <c r="B86" s="6">
         <v>14</v>
       </c>
@@ -3806,7 +3812,7 @@
       <c r="F86" s="8"/>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="87"/>
+      <c r="A87" s="106"/>
       <c r="B87" s="6">
         <v>15</v>
       </c>
@@ -3822,7 +3828,7 @@
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="87"/>
+      <c r="A88" s="106"/>
       <c r="B88" s="6">
         <v>16</v>
       </c>
@@ -3836,7 +3842,7 @@
       <c r="F88" s="8"/>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="87"/>
+      <c r="A89" s="106"/>
       <c r="B89" s="6">
         <v>17</v>
       </c>
@@ -3850,7 +3856,7 @@
       <c r="F89" s="8"/>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="87"/>
+      <c r="A90" s="106"/>
       <c r="B90" s="6">
         <v>18</v>
       </c>
@@ -3866,7 +3872,7 @@
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="87"/>
+      <c r="A91" s="106"/>
       <c r="B91" s="6">
         <v>19</v>
       </c>
@@ -3882,7 +3888,7 @@
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="87"/>
+      <c r="A92" s="106"/>
       <c r="B92" s="6">
         <v>20</v>
       </c>
@@ -3898,7 +3904,7 @@
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="87"/>
+      <c r="A93" s="106"/>
       <c r="B93" s="6">
         <v>21</v>
       </c>
@@ -3914,7 +3920,7 @@
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="87"/>
+      <c r="A94" s="106"/>
       <c r="B94" s="6">
         <v>22</v>
       </c>
@@ -3928,7 +3934,7 @@
       <c r="F94" s="8"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="87"/>
+      <c r="A95" s="106"/>
       <c r="B95" s="6">
         <v>23</v>
       </c>
@@ -3942,7 +3948,7 @@
       <c r="F95" s="8"/>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="87"/>
+      <c r="A96" s="106"/>
       <c r="B96" s="6">
         <v>24</v>
       </c>
@@ -3958,7 +3964,7 @@
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="87"/>
+      <c r="A97" s="106"/>
       <c r="B97" s="6">
         <v>25</v>
       </c>
@@ -3974,7 +3980,7 @@
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="87"/>
+      <c r="A98" s="106"/>
       <c r="B98" s="6">
         <v>26</v>
       </c>
@@ -3990,7 +3996,7 @@
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="87"/>
+      <c r="A99" s="106"/>
       <c r="B99" s="6">
         <v>27</v>
       </c>
@@ -4006,19 +4012,19 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A100" s="87">
+      <c r="A100" s="106">
         <v>8</v>
       </c>
-      <c r="B100" s="100" t="s">
+      <c r="B100" s="92" t="s">
         <v>155</v>
       </c>
-      <c r="C100" s="97"/>
-      <c r="D100" s="97"/>
-      <c r="E100" s="97"/>
-      <c r="F100" s="97"/>
+      <c r="C100" s="93"/>
+      <c r="D100" s="93"/>
+      <c r="E100" s="93"/>
+      <c r="F100" s="93"/>
     </row>
     <row r="101" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A101" s="87"/>
+      <c r="A101" s="106"/>
       <c r="B101" s="5" t="s">
         <v>10</v>
       </c>
@@ -4036,7 +4042,7 @@
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="87"/>
+      <c r="A102" s="106"/>
       <c r="B102" s="6">
         <v>1</v>
       </c>
@@ -4054,7 +4060,7 @@
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="87"/>
+      <c r="A103" s="106"/>
       <c r="B103" s="6">
         <v>2</v>
       </c>
@@ -4070,7 +4076,7 @@
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="87"/>
+      <c r="A104" s="106"/>
       <c r="B104" s="6">
         <v>3</v>
       </c>
@@ -4088,7 +4094,7 @@
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="87"/>
+      <c r="A105" s="106"/>
       <c r="B105" s="6">
         <v>4</v>
       </c>
@@ -4106,7 +4112,7 @@
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="87"/>
+      <c r="A106" s="106"/>
       <c r="B106" s="6">
         <v>5</v>
       </c>
@@ -4124,7 +4130,7 @@
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="87"/>
+      <c r="A107" s="106"/>
       <c r="B107" s="6">
         <v>6</v>
       </c>
@@ -4142,7 +4148,7 @@
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="87"/>
+      <c r="A108" s="106"/>
       <c r="B108" s="6">
         <v>7</v>
       </c>
@@ -4160,7 +4166,7 @@
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="87"/>
+      <c r="A109" s="106"/>
       <c r="B109" s="6">
         <v>8</v>
       </c>
@@ -4178,7 +4184,7 @@
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="87"/>
+      <c r="A110" s="106"/>
       <c r="B110" s="6">
         <v>9</v>
       </c>
@@ -4196,7 +4202,7 @@
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="87"/>
+      <c r="A111" s="106"/>
       <c r="B111" s="6">
         <v>10</v>
       </c>
@@ -4214,7 +4220,7 @@
       </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="87"/>
+      <c r="A112" s="106"/>
       <c r="B112" s="6">
         <v>11</v>
       </c>
@@ -4228,7 +4234,7 @@
       <c r="F112" s="12"/>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="87"/>
+      <c r="A113" s="106"/>
       <c r="B113" s="6">
         <v>12</v>
       </c>
@@ -4246,19 +4252,19 @@
       </c>
     </row>
     <row r="114" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A114" s="87">
+      <c r="A114" s="106">
         <v>9</v>
       </c>
       <c r="B114" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="C114" s="99"/>
-      <c r="D114" s="99"/>
-      <c r="E114" s="99"/>
-      <c r="F114" s="100"/>
+      <c r="C114" s="94"/>
+      <c r="D114" s="94"/>
+      <c r="E114" s="94"/>
+      <c r="F114" s="92"/>
     </row>
     <row r="115" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A115" s="87"/>
+      <c r="A115" s="106"/>
       <c r="B115" s="5" t="s">
         <v>10</v>
       </c>
@@ -4276,7 +4282,7 @@
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="87"/>
+      <c r="A116" s="106"/>
       <c r="B116" s="6">
         <v>1</v>
       </c>
@@ -4294,7 +4300,7 @@
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="87"/>
+      <c r="A117" s="106"/>
       <c r="B117" s="6">
         <v>2</v>
       </c>
@@ -4312,7 +4318,7 @@
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="87"/>
+      <c r="A118" s="106"/>
       <c r="B118" s="6">
         <v>3</v>
       </c>
@@ -4330,7 +4336,7 @@
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="87"/>
+      <c r="A119" s="106"/>
       <c r="B119" s="77">
         <v>4</v>
       </c>
@@ -4348,7 +4354,7 @@
       </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="87"/>
+      <c r="A120" s="106"/>
       <c r="B120" s="6">
         <v>5</v>
       </c>
@@ -4366,7 +4372,7 @@
       </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="87"/>
+      <c r="A121" s="106"/>
       <c r="B121" s="6">
         <v>6</v>
       </c>
@@ -4384,7 +4390,7 @@
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="87"/>
+      <c r="A122" s="106"/>
       <c r="B122" s="6">
         <v>7</v>
       </c>
@@ -4400,7 +4406,7 @@
       </c>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="87"/>
+      <c r="A123" s="106"/>
       <c r="B123" s="6">
         <v>8</v>
       </c>
@@ -4418,7 +4424,7 @@
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="87"/>
+      <c r="A124" s="106"/>
       <c r="B124" s="77">
         <v>9</v>
       </c>
@@ -4434,7 +4440,7 @@
       </c>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="87"/>
+      <c r="A125" s="106"/>
       <c r="B125" s="6">
         <v>10</v>
       </c>
@@ -4452,7 +4458,7 @@
       </c>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="87"/>
+      <c r="A126" s="106"/>
       <c r="B126" s="6">
         <v>11</v>
       </c>
@@ -4470,7 +4476,7 @@
       </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="87"/>
+      <c r="A127" s="106"/>
       <c r="B127" s="6">
         <v>12</v>
       </c>
@@ -4488,7 +4494,7 @@
       </c>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="87"/>
+      <c r="A128" s="106"/>
       <c r="B128" s="6">
         <v>13</v>
       </c>
@@ -4500,7 +4506,7 @@
       <c r="F128" s="12"/>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="87"/>
+      <c r="A129" s="106"/>
       <c r="B129" s="6">
         <v>14</v>
       </c>
@@ -4516,7 +4522,7 @@
       </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="87"/>
+      <c r="A130" s="106"/>
       <c r="B130" s="77">
         <v>14</v>
       </c>
@@ -4532,7 +4538,7 @@
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="87"/>
+      <c r="A131" s="106"/>
       <c r="B131" s="6">
         <v>15</v>
       </c>
@@ -4544,7 +4550,7 @@
       <c r="F131" s="17"/>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="87"/>
+      <c r="A132" s="106"/>
       <c r="B132" s="6">
         <v>16</v>
       </c>
@@ -4558,29 +4564,29 @@
       <c r="F132" s="18"/>
     </row>
     <row r="133" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A133" s="87">
+      <c r="A133" s="106">
         <v>9</v>
       </c>
-      <c r="B133" s="101" t="s">
+      <c r="B133" s="99" t="s">
         <v>186</v>
       </c>
-      <c r="C133" s="102"/>
-      <c r="D133" s="102"/>
-      <c r="E133" s="102"/>
-      <c r="F133" s="102"/>
+      <c r="C133" s="100"/>
+      <c r="D133" s="100"/>
+      <c r="E133" s="100"/>
+      <c r="F133" s="100"/>
     </row>
     <row r="134" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A134" s="87"/>
-      <c r="B134" s="88" t="s">
+      <c r="A134" s="106"/>
+      <c r="B134" s="107" t="s">
         <v>293</v>
       </c>
-      <c r="C134" s="89"/>
-      <c r="D134" s="89"/>
-      <c r="E134" s="89"/>
-      <c r="F134" s="90"/>
+      <c r="C134" s="108"/>
+      <c r="D134" s="108"/>
+      <c r="E134" s="108"/>
+      <c r="F134" s="109"/>
     </row>
     <row r="135" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A135" s="87"/>
+      <c r="A135" s="106"/>
       <c r="B135" s="5" t="s">
         <v>10</v>
       </c>
@@ -4598,7 +4604,7 @@
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="87"/>
+      <c r="A136" s="106"/>
       <c r="B136" s="14">
         <v>1</v>
       </c>
@@ -4616,7 +4622,7 @@
       </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="87"/>
+      <c r="A137" s="106"/>
       <c r="B137" s="14">
         <v>2</v>
       </c>
@@ -4634,7 +4640,7 @@
       </c>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="87"/>
+      <c r="A138" s="106"/>
       <c r="B138" s="14">
         <v>3</v>
       </c>
@@ -4652,7 +4658,7 @@
       </c>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="87"/>
+      <c r="A139" s="106"/>
       <c r="B139" s="14">
         <v>3</v>
       </c>
@@ -4670,7 +4676,7 @@
       </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="87"/>
+      <c r="A140" s="106"/>
       <c r="B140" s="14">
         <v>4</v>
       </c>
@@ -4688,7 +4694,7 @@
       </c>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="87"/>
+      <c r="A141" s="106"/>
       <c r="B141" s="14">
         <v>5</v>
       </c>
@@ -4706,7 +4712,7 @@
       </c>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="87"/>
+      <c r="A142" s="106"/>
       <c r="B142" s="14">
         <v>6</v>
       </c>
@@ -4722,7 +4728,7 @@
       </c>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="87"/>
+      <c r="A143" s="106"/>
       <c r="B143" s="14">
         <v>7</v>
       </c>
@@ -4740,7 +4746,7 @@
       </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="87"/>
+      <c r="A144" s="106"/>
       <c r="B144" s="14">
         <v>7</v>
       </c>
@@ -4758,7 +4764,7 @@
       </c>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="87"/>
+      <c r="A145" s="106"/>
       <c r="B145" s="14">
         <v>8</v>
       </c>
@@ -4776,7 +4782,7 @@
       </c>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="87"/>
+      <c r="A146" s="106"/>
       <c r="B146" s="14">
         <v>9</v>
       </c>
@@ -4794,7 +4800,7 @@
       </c>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="87"/>
+      <c r="A147" s="106"/>
       <c r="B147" s="14">
         <v>10</v>
       </c>
@@ -4812,7 +4818,7 @@
       </c>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="87"/>
+      <c r="A148" s="106"/>
       <c r="B148" s="14">
         <v>11</v>
       </c>
@@ -4824,7 +4830,7 @@
       <c r="F148" s="12"/>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="87"/>
+      <c r="A149" s="106"/>
       <c r="B149" s="77">
         <v>14</v>
       </c>
@@ -4840,7 +4846,7 @@
       </c>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="87"/>
+      <c r="A150" s="106"/>
       <c r="B150" s="14">
         <v>12</v>
       </c>
@@ -4856,7 +4862,7 @@
       </c>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="87"/>
+      <c r="A151" s="106"/>
       <c r="B151" s="14">
         <v>13</v>
       </c>
@@ -4868,7 +4874,7 @@
       <c r="F151" s="12"/>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="87"/>
+      <c r="A152" s="106"/>
       <c r="B152" s="14">
         <v>14</v>
       </c>
@@ -4884,7 +4890,7 @@
       </c>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="87"/>
+      <c r="A153" s="106"/>
       <c r="B153" s="14">
         <v>15</v>
       </c>
@@ -4898,7 +4904,7 @@
       <c r="F153" s="12"/>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="87"/>
+      <c r="A154" s="106"/>
       <c r="B154" s="14">
         <v>16</v>
       </c>
@@ -4914,19 +4920,19 @@
       </c>
     </row>
     <row r="155" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A155" s="87">
+      <c r="A155" s="106">
         <v>10</v>
       </c>
-      <c r="B155" s="100" t="s">
+      <c r="B155" s="92" t="s">
         <v>192</v>
       </c>
-      <c r="C155" s="97"/>
-      <c r="D155" s="97"/>
-      <c r="E155" s="97"/>
-      <c r="F155" s="97"/>
+      <c r="C155" s="93"/>
+      <c r="D155" s="93"/>
+      <c r="E155" s="93"/>
+      <c r="F155" s="93"/>
     </row>
     <row r="156" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A156" s="87"/>
+      <c r="A156" s="106"/>
       <c r="B156" s="5" t="s">
         <v>10</v>
       </c>
@@ -4944,7 +4950,7 @@
       </c>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="87"/>
+      <c r="A157" s="106"/>
       <c r="B157" s="6">
         <v>1</v>
       </c>
@@ -4962,7 +4968,7 @@
       </c>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="87"/>
+      <c r="A158" s="106"/>
       <c r="B158" s="6">
         <v>2</v>
       </c>
@@ -4980,7 +4986,7 @@
       </c>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="87"/>
+      <c r="A159" s="106"/>
       <c r="B159" s="6">
         <v>3</v>
       </c>
@@ -4994,7 +5000,7 @@
       <c r="F159" s="8"/>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="87"/>
+      <c r="A160" s="106"/>
       <c r="B160" s="6">
         <v>4</v>
       </c>
@@ -5012,7 +5018,7 @@
       </c>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="87"/>
+      <c r="A161" s="106"/>
       <c r="B161" s="6">
         <v>5</v>
       </c>
@@ -5030,7 +5036,7 @@
       </c>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="87"/>
+      <c r="A162" s="106"/>
       <c r="B162" s="6">
         <v>6</v>
       </c>
@@ -5048,19 +5054,19 @@
       </c>
     </row>
     <row r="163" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A163" s="93">
+      <c r="A163" s="103">
         <v>11</v>
       </c>
-      <c r="B163" s="96" t="s">
+      <c r="B163" s="101" t="s">
         <v>196</v>
       </c>
-      <c r="C163" s="96"/>
-      <c r="D163" s="96"/>
-      <c r="E163" s="96"/>
-      <c r="F163" s="96"/>
+      <c r="C163" s="101"/>
+      <c r="D163" s="101"/>
+      <c r="E163" s="101"/>
+      <c r="F163" s="101"/>
     </row>
     <row r="164" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A164" s="94"/>
+      <c r="A164" s="104"/>
       <c r="B164" s="19" t="s">
         <v>10</v>
       </c>
@@ -5078,7 +5084,7 @@
       </c>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="94"/>
+      <c r="A165" s="104"/>
       <c r="B165" s="6">
         <v>1</v>
       </c>
@@ -5094,7 +5100,7 @@
       <c r="F165" s="8"/>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="94"/>
+      <c r="A166" s="104"/>
       <c r="B166" s="6">
         <v>2</v>
       </c>
@@ -5110,7 +5116,7 @@
       <c r="F166" s="8"/>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="94"/>
+      <c r="A167" s="104"/>
       <c r="B167" s="6">
         <v>3</v>
       </c>
@@ -5126,7 +5132,7 @@
       <c r="F167" s="8"/>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="94"/>
+      <c r="A168" s="104"/>
       <c r="B168" s="6">
         <v>4</v>
       </c>
@@ -5142,7 +5148,7 @@
       <c r="F168" s="8"/>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="94"/>
+      <c r="A169" s="104"/>
       <c r="B169" s="6">
         <v>5</v>
       </c>
@@ -5158,7 +5164,7 @@
       <c r="F169" s="8"/>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="94"/>
+      <c r="A170" s="104"/>
       <c r="B170" s="6">
         <v>6</v>
       </c>
@@ -5172,7 +5178,7 @@
       <c r="F170" s="8"/>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" s="94"/>
+      <c r="A171" s="104"/>
       <c r="B171" s="6">
         <v>7</v>
       </c>
@@ -5186,7 +5192,7 @@
       <c r="F171" s="8"/>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="94"/>
+      <c r="A172" s="104"/>
       <c r="B172" s="6">
         <v>8</v>
       </c>
@@ -5200,7 +5206,7 @@
       <c r="F172" s="8"/>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" s="94"/>
+      <c r="A173" s="104"/>
       <c r="B173" s="6">
         <v>9</v>
       </c>
@@ -5214,7 +5220,7 @@
       <c r="F173" s="8"/>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="94"/>
+      <c r="A174" s="104"/>
       <c r="B174" s="6">
         <v>10</v>
       </c>
@@ -5230,7 +5236,7 @@
       <c r="F174" s="8"/>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="94"/>
+      <c r="A175" s="104"/>
       <c r="B175" s="6">
         <v>11</v>
       </c>
@@ -5244,61 +5250,55 @@
       <c r="F175" s="8"/>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="87">
+      <c r="A176" s="106">
         <v>12</v>
       </c>
-      <c r="B176" s="97" t="s">
+      <c r="B176" s="93" t="s">
         <v>206</v>
       </c>
-      <c r="C176" s="97"/>
-      <c r="D176" s="97"/>
-      <c r="E176" s="97"/>
-      <c r="F176" s="97"/>
+      <c r="C176" s="93"/>
+      <c r="D176" s="93"/>
+      <c r="E176" s="93"/>
+      <c r="F176" s="93"/>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="87"/>
-      <c r="B177" s="5" t="s">
+      <c r="A177" s="106"/>
+      <c r="B177" s="79"/>
+      <c r="C177" s="98" t="s">
+        <v>307</v>
+      </c>
+      <c r="D177" s="94"/>
+      <c r="E177" s="94"/>
+      <c r="F177" s="92"/>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="106"/>
+      <c r="B178" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C177" s="5" t="s">
+      <c r="C178" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D177" s="5" t="s">
+      <c r="D178" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E177" s="5" t="s">
+      <c r="E178" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F177" s="5" t="s">
+      <c r="F178" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
-      <c r="A178" s="87"/>
-      <c r="B178" s="20">
+    <row r="179" spans="1:6">
+      <c r="A179" s="106"/>
+      <c r="B179" s="20">
         <v>1</v>
       </c>
-      <c r="C178" s="12" t="s">
+      <c r="C179" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="D178" s="8" t="s">
+      <c r="D179" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="E178" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F178" s="8"/>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179" s="87"/>
-      <c r="B179" s="20">
-        <v>2</v>
-      </c>
-      <c r="C179" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="D179" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="E179" s="8" t="s">
         <v>17</v>
@@ -5306,96 +5306,98 @@
       <c r="F179" s="8"/>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="87"/>
+      <c r="A180" s="106"/>
       <c r="B180" s="20">
+        <v>2</v>
+      </c>
+      <c r="C180" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E180" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F180" s="8"/>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="106"/>
+      <c r="B181" s="20">
         <v>3</v>
       </c>
-      <c r="C180" s="12" t="s">
+      <c r="C181" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="D180" s="8" t="s">
+      <c r="D181" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="E180" s="8"/>
-      <c r="F180" s="8"/>
-    </row>
-    <row r="181" spans="1:6">
-      <c r="A181" s="87"/>
-      <c r="B181" s="20">
-        <v>4</v>
-      </c>
-      <c r="C181" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="D181" s="8" t="s">
-        <v>95</v>
       </c>
       <c r="E181" s="8"/>
       <c r="F181" s="8"/>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" s="87"/>
+      <c r="A182" s="106"/>
       <c r="B182" s="20">
-        <v>5</v>
-      </c>
-      <c r="C182" s="8" t="s">
-        <v>211</v>
+        <v>4</v>
+      </c>
+      <c r="C182" s="12" t="s">
+        <v>210</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="E182" s="8"/>
       <c r="F182" s="8"/>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" s="87"/>
+      <c r="A183" s="106"/>
       <c r="B183" s="20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="E183" s="8"/>
       <c r="F183" s="8"/>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="87"/>
+      <c r="A184" s="106"/>
       <c r="B184" s="20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>41</v>
+        <v>213</v>
       </c>
       <c r="E184" s="8"/>
       <c r="F184" s="8"/>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" s="87"/>
+      <c r="A185" s="106"/>
       <c r="B185" s="20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="E185" s="8"/>
       <c r="F185" s="8"/>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="87"/>
+      <c r="A186" s="106"/>
       <c r="B186" s="20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D186" s="8" t="s">
         <v>79</v>
@@ -5404,12 +5406,12 @@
       <c r="F186" s="8"/>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="87"/>
+      <c r="A187" s="106"/>
       <c r="B187" s="20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D187" s="8" t="s">
         <v>79</v>
@@ -5418,12 +5420,12 @@
       <c r="F187" s="8"/>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" s="87"/>
+      <c r="A188" s="106"/>
       <c r="B188" s="20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D188" s="8" t="s">
         <v>79</v>
@@ -5432,12 +5434,12 @@
       <c r="F188" s="8"/>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" s="87"/>
+      <c r="A189" s="106"/>
       <c r="B189" s="20">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D189" s="8" t="s">
         <v>79</v>
@@ -5446,12 +5448,12 @@
       <c r="F189" s="8"/>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="87"/>
+      <c r="A190" s="106"/>
       <c r="B190" s="20">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D190" s="8" t="s">
         <v>79</v>
@@ -5460,86 +5462,84 @@
       <c r="F190" s="8"/>
     </row>
     <row r="191" spans="1:6">
-      <c r="A191" s="87"/>
+      <c r="A191" s="106"/>
       <c r="B191" s="20">
+        <v>13</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E191" s="8"/>
+      <c r="F191" s="8"/>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="106"/>
+      <c r="B192" s="20">
         <v>14</v>
       </c>
-      <c r="C191" s="8" t="s">
+      <c r="C192" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="D191" s="8" t="s">
+      <c r="D192" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="E191" s="11"/>
-      <c r="F191" s="11"/>
-    </row>
-    <row r="192" spans="1:6">
-      <c r="A192" s="87"/>
-      <c r="B192" s="20">
-        <v>15</v>
-      </c>
-      <c r="C192" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D192" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="E192" s="11"/>
       <c r="F192" s="11"/>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" s="87">
+      <c r="A193" s="106"/>
+      <c r="B193" s="20">
+        <v>15</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E193" s="11"/>
+      <c r="F193" s="11"/>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="106">
         <v>13</v>
       </c>
-      <c r="B193" s="96" t="s">
+      <c r="B194" s="101" t="s">
         <v>222</v>
       </c>
-      <c r="C193" s="96"/>
-      <c r="D193" s="96"/>
-      <c r="E193" s="96"/>
-      <c r="F193" s="96"/>
-    </row>
-    <row r="194" spans="1:6">
-      <c r="A194" s="87"/>
-      <c r="B194" s="19" t="s">
+      <c r="C194" s="101"/>
+      <c r="D194" s="101"/>
+      <c r="E194" s="101"/>
+      <c r="F194" s="101"/>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="106"/>
+      <c r="B195" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C194" s="5" t="s">
+      <c r="C195" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D194" s="5" t="s">
+      <c r="D195" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E194" s="5" t="s">
+      <c r="E195" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F194" s="5" t="s">
+      <c r="F195" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
-      <c r="A195" s="87"/>
-      <c r="B195" s="6">
+    <row r="196" spans="1:6">
+      <c r="A196" s="106"/>
+      <c r="B196" s="6">
         <v>1</v>
       </c>
-      <c r="C195" s="8" t="s">
+      <c r="C196" s="8" t="s">
         <v>223</v>
-      </c>
-      <c r="D195" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E195" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F195" s="10"/>
-    </row>
-    <row r="196" spans="1:6">
-      <c r="A196" s="87"/>
-      <c r="B196" s="6">
-        <v>2</v>
-      </c>
-      <c r="C196" s="8" t="s">
-        <v>197</v>
       </c>
       <c r="D196" s="8" t="s">
         <v>92</v>
@@ -5547,199 +5547,199 @@
       <c r="E196" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F196" s="8"/>
+      <c r="F196" s="10"/>
     </row>
     <row r="197" spans="1:6">
-      <c r="A197" s="87"/>
+      <c r="A197" s="106"/>
       <c r="B197" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D197" s="8" t="s">
         <v>92</v>
       </c>
       <c r="E197" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F197" s="8"/>
     </row>
     <row r="198" spans="1:6">
-      <c r="A198" s="87"/>
+      <c r="A198" s="106"/>
       <c r="B198" s="6">
+        <v>3</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D198" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E198" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F198" s="8"/>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="106"/>
+      <c r="B199" s="6">
         <v>4</v>
       </c>
-      <c r="C198" s="8" t="s">
+      <c r="C199" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="D198" s="8" t="s">
+      <c r="D199" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E198" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F198" s="8"/>
-    </row>
-    <row r="199" spans="1:6">
-      <c r="A199" s="87"/>
-      <c r="B199" s="6">
+      <c r="E199" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F199" s="8"/>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="106"/>
+      <c r="B200" s="6">
         <v>5</v>
       </c>
-      <c r="C199" s="9" t="s">
+      <c r="C200" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="D199" s="8" t="s">
+      <c r="D200" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E199" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F199" s="6"/>
-    </row>
-    <row r="200" spans="1:6">
-      <c r="A200" s="87"/>
-      <c r="B200" s="6">
+      <c r="E200" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F200" s="6"/>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="106"/>
+      <c r="B201" s="6">
         <v>6</v>
       </c>
-      <c r="C200" s="9" t="s">
+      <c r="C201" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D200" s="8" t="s">
+      <c r="D201" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="E200" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F200" s="8"/>
-    </row>
-    <row r="201" spans="1:6">
-      <c r="A201" s="87"/>
-      <c r="B201" s="6">
+      <c r="E201" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F201" s="8"/>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="106"/>
+      <c r="B202" s="6">
         <v>7</v>
       </c>
-      <c r="C201" s="8" t="s">
+      <c r="C202" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="D201" s="8" t="s">
+      <c r="D202" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E201" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F201" s="8"/>
-    </row>
-    <row r="202" spans="1:6">
-      <c r="A202" s="87"/>
-      <c r="B202" s="6">
+      <c r="E202" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F202" s="8"/>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="106"/>
+      <c r="B203" s="6">
         <v>8</v>
       </c>
-      <c r="C202" s="21" t="s">
+      <c r="C203" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D202" s="8" t="s">
+      <c r="D203" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E202" s="11"/>
-      <c r="F202" s="11"/>
-    </row>
-    <row r="203" spans="1:6">
-      <c r="A203" s="87"/>
-      <c r="B203" s="6">
+      <c r="E203" s="11"/>
+      <c r="F203" s="11"/>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="106"/>
+      <c r="B204" s="6">
         <v>9</v>
       </c>
-      <c r="C203" s="22" t="s">
+      <c r="C204" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="D203" s="8" t="s">
+      <c r="D204" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E203" s="8" t="s">
+      <c r="E204" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F203" s="11"/>
-    </row>
-    <row r="204" spans="1:6">
-      <c r="A204" s="87"/>
-      <c r="B204" s="6">
+      <c r="F204" s="11"/>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="106"/>
+      <c r="B205" s="6">
         <v>10</v>
       </c>
-      <c r="C204" s="22" t="s">
+      <c r="C205" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="D204" s="8" t="s">
+      <c r="D205" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="E204" s="11"/>
-      <c r="F204" s="11"/>
-    </row>
-    <row r="205" spans="1:6">
-      <c r="A205" s="87"/>
-      <c r="B205" s="6">
-        <v>11</v>
-      </c>
-      <c r="C205" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="D205" s="8" t="s">
-        <v>191</v>
       </c>
       <c r="E205" s="11"/>
       <c r="F205" s="11"/>
     </row>
     <row r="206" spans="1:6">
-      <c r="A206" s="87">
+      <c r="A206" s="106"/>
+      <c r="B206" s="6">
+        <v>11</v>
+      </c>
+      <c r="C206" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D206" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E206" s="11"/>
+      <c r="F206" s="11"/>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="106">
         <v>14</v>
       </c>
-      <c r="B206" s="96" t="s">
+      <c r="B207" s="101" t="s">
         <v>227</v>
       </c>
-      <c r="C206" s="96"/>
-      <c r="D206" s="96"/>
-      <c r="E206" s="96"/>
-      <c r="F206" s="96"/>
-    </row>
-    <row r="207" spans="1:6">
-      <c r="A207" s="87"/>
-      <c r="B207" s="19" t="s">
+      <c r="C207" s="101"/>
+      <c r="D207" s="101"/>
+      <c r="E207" s="101"/>
+      <c r="F207" s="101"/>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="106"/>
+      <c r="B208" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C207" s="5" t="s">
+      <c r="C208" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D207" s="5" t="s">
+      <c r="D208" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E207" s="5" t="s">
+      <c r="E208" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F207" s="5" t="s">
+      <c r="F208" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
-      <c r="A208" s="87"/>
-      <c r="B208" s="6">
+    <row r="209" spans="1:6">
+      <c r="A209" s="106"/>
+      <c r="B209" s="6">
         <v>1</v>
       </c>
-      <c r="C208" s="8" t="s">
+      <c r="C209" s="8" t="s">
         <v>200</v>
-      </c>
-      <c r="D208" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E208" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F208" s="8"/>
-    </row>
-    <row r="209" spans="1:6">
-      <c r="A209" s="87"/>
-      <c r="B209" s="6">
-        <v>2</v>
-      </c>
-      <c r="C209" s="8" t="s">
-        <v>228</v>
       </c>
       <c r="D209" s="8" t="s">
         <v>92</v>
@@ -5750,44 +5750,44 @@
       <c r="F209" s="8"/>
     </row>
     <row r="210" spans="1:6">
-      <c r="A210" s="87"/>
+      <c r="A210" s="106"/>
       <c r="B210" s="6">
+        <v>2</v>
+      </c>
+      <c r="C210" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D210" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E210" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F210" s="8"/>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="106"/>
+      <c r="B211" s="6">
         <v>3</v>
       </c>
-      <c r="C210" s="8" t="s">
+      <c r="C211" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="D210" s="8" t="s">
+      <c r="D211" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E210" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F210" s="8"/>
-    </row>
-    <row r="211" spans="1:6">
-      <c r="A211" s="87"/>
-      <c r="B211" s="6">
+      <c r="E211" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F211" s="8"/>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="106"/>
+      <c r="B212" s="6">
         <v>4</v>
       </c>
-      <c r="C211" s="9" t="s">
+      <c r="C212" s="9" t="s">
         <v>230</v>
-      </c>
-      <c r="D211" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E211" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F211" s="8"/>
-    </row>
-    <row r="212" spans="1:6">
-      <c r="A212" s="87"/>
-      <c r="B212" s="6">
-        <v>5</v>
-      </c>
-      <c r="C212" s="9" t="s">
-        <v>231</v>
       </c>
       <c r="D212" s="8" t="s">
         <v>16</v>
@@ -5798,93 +5798,93 @@
       <c r="F212" s="8"/>
     </row>
     <row r="213" spans="1:6">
-      <c r="A213" s="87"/>
+      <c r="A213" s="106"/>
       <c r="B213" s="6">
+        <v>5</v>
+      </c>
+      <c r="C213" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D213" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E213" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F213" s="8"/>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="106"/>
+      <c r="B214" s="6">
         <v>6</v>
       </c>
-      <c r="C213" s="8" t="s">
+      <c r="C214" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="D213" s="8" t="s">
+      <c r="D214" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E213" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F213" s="8"/>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="A214" s="87"/>
-      <c r="B214" s="6">
+      <c r="E214" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F214" s="8"/>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="106"/>
+      <c r="B215" s="6">
         <v>7</v>
       </c>
-      <c r="C214" s="21" t="s">
+      <c r="C215" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D214" s="8" t="s">
+      <c r="D215" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E214" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F214" s="11"/>
-    </row>
-    <row r="215" spans="1:6">
-      <c r="A215" s="87">
+      <c r="E215" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F215" s="11"/>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="106">
         <v>15</v>
       </c>
-      <c r="B215" s="97" t="s">
+      <c r="B216" s="93" t="s">
         <v>233</v>
       </c>
-      <c r="C215" s="97"/>
-      <c r="D215" s="97"/>
-      <c r="E215" s="97"/>
-      <c r="F215" s="97"/>
-    </row>
-    <row r="216" spans="1:6">
-      <c r="A216" s="87"/>
-      <c r="B216" s="5" t="s">
+      <c r="C216" s="93"/>
+      <c r="D216" s="93"/>
+      <c r="E216" s="93"/>
+      <c r="F216" s="93"/>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="106"/>
+      <c r="B217" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C216" s="5" t="s">
+      <c r="C217" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D216" s="5" t="s">
+      <c r="D217" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E216" s="5" t="s">
+      <c r="E217" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F216" s="5" t="s">
+      <c r="F217" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
-      <c r="A217" s="87"/>
-      <c r="B217" s="20">
+    <row r="218" spans="1:6">
+      <c r="A218" s="106"/>
+      <c r="B218" s="20">
         <v>1</v>
       </c>
-      <c r="C217" s="8" t="s">
+      <c r="C218" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="D217" s="8" t="s">
+      <c r="D218" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="E217" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F217" s="8"/>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218" s="87"/>
-      <c r="B218" s="20">
-        <v>2</v>
-      </c>
-      <c r="C218" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D218" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="E218" s="8" t="s">
         <v>17</v>
@@ -5892,44 +5892,44 @@
       <c r="F218" s="8"/>
     </row>
     <row r="219" spans="1:6">
-      <c r="A219" s="87"/>
+      <c r="A219" s="106"/>
       <c r="B219" s="20">
+        <v>2</v>
+      </c>
+      <c r="C219" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D219" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E219" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F219" s="8"/>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="106"/>
+      <c r="B220" s="20">
         <v>3</v>
       </c>
-      <c r="C219" s="8" t="s">
+      <c r="C220" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D219" s="8" t="s">
+      <c r="D220" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E219" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F219" s="8"/>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220" s="87"/>
-      <c r="B220" s="20">
+      <c r="E220" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F220" s="8"/>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="106"/>
+      <c r="B221" s="20">
         <v>4</v>
       </c>
-      <c r="C220" s="9" t="s">
+      <c r="C221" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="D220" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E220" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F220" s="8"/>
-    </row>
-    <row r="221" spans="1:6">
-      <c r="A221" s="87"/>
-      <c r="B221" s="20">
-        <v>5</v>
-      </c>
-      <c r="C221" s="9" t="s">
-        <v>82</v>
       </c>
       <c r="D221" s="8" t="s">
         <v>16</v>
@@ -5940,111 +5940,109 @@
       <c r="F221" s="8"/>
     </row>
     <row r="222" spans="1:6">
-      <c r="A222" s="87"/>
+      <c r="A222" s="106"/>
       <c r="B222" s="20">
+        <v>5</v>
+      </c>
+      <c r="C222" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D222" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E222" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F222" s="8"/>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="106"/>
+      <c r="B223" s="20">
         <v>6</v>
       </c>
-      <c r="C222" s="8" t="s">
+      <c r="C223" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="D222" s="8" t="s">
+      <c r="D223" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E222" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F222" s="8"/>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223" s="87"/>
-      <c r="B223" s="20">
+      <c r="E223" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F223" s="8"/>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="106"/>
+      <c r="B224" s="20">
         <v>7</v>
       </c>
-      <c r="C223" s="9" t="s">
+      <c r="C224" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D223" s="8" t="s">
+      <c r="D224" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E223" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F223" s="11"/>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224" s="87"/>
-      <c r="B224" s="23">
+      <c r="E224" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F224" s="11"/>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="106"/>
+      <c r="B225" s="23">
         <v>8</v>
       </c>
-      <c r="C224" s="16" t="s">
+      <c r="C225" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="D224" s="12" t="s">
+      <c r="D225" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E224" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F224" s="17"/>
-    </row>
-    <row r="225" spans="1:6">
-      <c r="A225" s="87">
+      <c r="E225" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F225" s="17"/>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="106">
         <v>16</v>
       </c>
-      <c r="B225" s="97" t="s">
+      <c r="B226" s="93" t="s">
         <v>237</v>
       </c>
-      <c r="C225" s="97"/>
-      <c r="D225" s="97"/>
-      <c r="E225" s="97"/>
-      <c r="F225" s="97"/>
-    </row>
-    <row r="226" spans="1:6">
-      <c r="A226" s="87"/>
-      <c r="B226" s="5" t="s">
+      <c r="C226" s="93"/>
+      <c r="D226" s="93"/>
+      <c r="E226" s="93"/>
+      <c r="F226" s="93"/>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="106"/>
+      <c r="B227" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C226" s="5" t="s">
+      <c r="C227" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D226" s="5" t="s">
+      <c r="D227" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E226" s="5" t="s">
+      <c r="E227" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F226" s="5" t="s">
+      <c r="F227" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
-      <c r="A227" s="87"/>
-      <c r="B227" s="23">
+    <row r="228" spans="1:6">
+      <c r="A228" s="106"/>
+      <c r="B228" s="23">
         <v>1</v>
       </c>
-      <c r="C227" s="16" t="s">
+      <c r="C228" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="D227" s="12" t="s">
+      <c r="D228" s="12" t="s">
         <v>118</v>
-      </c>
-      <c r="E227" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F227" s="12" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
-      <c r="A228" s="87"/>
-      <c r="B228" s="23">
-        <v>2</v>
-      </c>
-      <c r="C228" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="D228" s="12" t="s">
-        <v>92</v>
       </c>
       <c r="E228" s="12" t="s">
         <v>17</v>
@@ -6054,355 +6052,360 @@
       </c>
     </row>
     <row r="229" spans="1:6">
-      <c r="A229" s="87"/>
+      <c r="A229" s="106"/>
       <c r="B229" s="23">
+        <v>2</v>
+      </c>
+      <c r="C229" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D229" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E229" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F229" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="106"/>
+      <c r="B230" s="23">
         <v>3</v>
       </c>
-      <c r="C229" s="12" t="s">
+      <c r="C230" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="D229" s="12" t="s">
+      <c r="D230" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E229" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F229" s="12"/>
-    </row>
-    <row r="230" spans="1:6">
-      <c r="A230" s="87"/>
-      <c r="B230" s="23">
+      <c r="E230" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F230" s="12"/>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="106"/>
+      <c r="B231" s="23">
         <v>4</v>
       </c>
-      <c r="C230" s="16" t="s">
+      <c r="C231" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="D230" s="12" t="s">
+      <c r="D231" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="E230" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F230" s="12"/>
-    </row>
-    <row r="231" spans="1:6">
-      <c r="A231" s="87"/>
-      <c r="B231" s="23">
+      <c r="E231" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F231" s="12"/>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="106"/>
+      <c r="B232" s="23">
         <v>5</v>
       </c>
-      <c r="C231" s="16" t="s">
+      <c r="C232" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="D231" s="12" t="s">
+      <c r="D232" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E231" s="12" t="s">
+      <c r="E232" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F231" s="12" t="s">
+      <c r="F232" s="12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
-      <c r="A232" s="87"/>
-      <c r="B232" s="23">
+    <row r="233" spans="1:6">
+      <c r="A233" s="106"/>
+      <c r="B233" s="23">
         <v>6</v>
       </c>
-      <c r="C232" s="16" t="s">
+      <c r="C233" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="D232" s="12" t="s">
+      <c r="D233" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E232" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F232" s="12"/>
-    </row>
-    <row r="233" spans="1:6">
-      <c r="A233" s="87"/>
-      <c r="B233" s="23">
+      <c r="E233" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F233" s="12"/>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="106"/>
+      <c r="B234" s="23">
         <v>7</v>
       </c>
-      <c r="C233" s="16" t="s">
+      <c r="C234" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="D233" s="12" t="s">
+      <c r="D234" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E233" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F233" s="12" t="s">
+      <c r="E234" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F234" s="12" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
-      <c r="A234" s="87"/>
-      <c r="B234" s="23">
+    <row r="235" spans="1:6">
+      <c r="A235" s="106"/>
+      <c r="B235" s="23">
         <v>8</v>
       </c>
-      <c r="C234" s="16" t="s">
+      <c r="C235" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="D234" s="12" t="s">
+      <c r="D235" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="E234" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F234" s="17"/>
-    </row>
-    <row r="235" spans="1:6">
-      <c r="A235" s="87"/>
-      <c r="B235" s="23">
+      <c r="E235" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F235" s="17"/>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="106"/>
+      <c r="B236" s="23">
         <v>9</v>
       </c>
-      <c r="C235" s="16" t="s">
+      <c r="C236" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="D235" s="12" t="s">
+      <c r="D236" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E235" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F235" s="17"/>
-    </row>
-    <row r="236" spans="1:6">
-      <c r="B236" s="91" t="s">
+      <c r="E236" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F236" s="17"/>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="B237" s="97" t="s">
         <v>242</v>
       </c>
-      <c r="C236" s="91"/>
-      <c r="D236" s="91"/>
-      <c r="E236" s="91"/>
-      <c r="F236" s="91"/>
-    </row>
-    <row r="237" spans="1:6">
-      <c r="B237" s="5" t="s">
+      <c r="C237" s="97"/>
+      <c r="D237" s="97"/>
+      <c r="E237" s="97"/>
+      <c r="F237" s="97"/>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="B238" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C237" s="5" t="s">
+      <c r="C238" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D237" s="5" t="s">
+      <c r="D238" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E237" s="5" t="s">
+      <c r="E238" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F237" s="5" t="s">
+      <c r="F238" s="5" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6">
-      <c r="B238" s="23">
-        <v>1</v>
-      </c>
-      <c r="C238" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D238" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="E238" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F238" s="12" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="B239" s="23">
-        <v>2</v>
-      </c>
-      <c r="C239" s="16" t="s">
-        <v>145</v>
+        <v>1</v>
+      </c>
+      <c r="C239" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="D239" s="12" t="s">
-        <v>46</v>
+        <v>243</v>
       </c>
       <c r="E239" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F239" s="12" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="B240" s="23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>245</v>
+        <v>145</v>
       </c>
       <c r="D240" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="E240" s="12"/>
+        <v>46</v>
+      </c>
+      <c r="E240" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="F240" s="12" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="241" spans="2:6">
       <c r="B241" s="23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D241" s="12" t="s">
-        <v>107</v>
+        <v>246</v>
       </c>
       <c r="E241" s="12"/>
-      <c r="F241" s="12"/>
+      <c r="F241" s="12" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="242" spans="2:6">
       <c r="B242" s="23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="D242" s="12"/>
+        <v>248</v>
+      </c>
+      <c r="D242" s="12" t="s">
+        <v>107</v>
+      </c>
       <c r="E242" s="12"/>
       <c r="F242" s="12"/>
     </row>
     <row r="243" spans="2:6">
       <c r="B243" s="23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="D243" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E243" s="12" t="s">
-        <v>21</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="D243" s="12"/>
+      <c r="E243" s="12"/>
       <c r="F243" s="12"/>
     </row>
     <row r="244" spans="2:6">
       <c r="B244" s="23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="D244" s="12" t="s">
-        <v>213</v>
+        <v>39</v>
       </c>
       <c r="E244" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F244" s="12" t="s">
-        <v>250</v>
-      </c>
+      <c r="F244" s="12"/>
     </row>
     <row r="245" spans="2:6">
       <c r="B245" s="23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="D245" s="12"/>
-      <c r="E245" s="12"/>
-      <c r="F245" s="12"/>
+        <v>166</v>
+      </c>
+      <c r="D245" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E245" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F245" s="12" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="246" spans="2:6">
       <c r="B246" s="23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="D246" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="E246" s="12" t="s">
-        <v>21</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D246" s="12"/>
+      <c r="E246" s="12"/>
       <c r="F246" s="12"/>
     </row>
     <row r="247" spans="2:6">
       <c r="B247" s="23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D247" s="12" t="s">
-        <v>104</v>
+        <v>246</v>
       </c>
       <c r="E247" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F247" s="12" t="s">
-        <v>51</v>
-      </c>
+      <c r="F247" s="12"/>
     </row>
     <row r="248" spans="2:6">
       <c r="B248" s="23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D248" s="12" t="s">
-        <v>246</v>
+        <v>104</v>
       </c>
       <c r="E248" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F248" s="17"/>
+      <c r="F248" s="12" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="249" spans="2:6">
       <c r="B249" s="23">
-        <v>12</v>
-      </c>
-      <c r="C249" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="D249" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E249" s="8"/>
-      <c r="F249" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="C249" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="D249" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="E249" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F249" s="17"/>
     </row>
     <row r="250" spans="2:6">
       <c r="B250" s="23">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C250" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D250" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E250" s="8"/>
       <c r="F250" s="8"/>
     </row>
     <row r="251" spans="2:6">
       <c r="B251" s="23">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C251" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="D251" s="12" t="s">
-        <v>107</v>
+        <v>255</v>
+      </c>
+      <c r="D251" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="E251" s="8"/>
       <c r="F251" s="8"/>
     </row>
     <row r="252" spans="2:6">
       <c r="B252" s="23">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C252" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D252" s="12" t="s">
         <v>107</v>
@@ -6412,21 +6415,23 @@
     </row>
     <row r="253" spans="2:6">
       <c r="B253" s="23">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C253" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="D253" s="12"/>
+        <v>257</v>
+      </c>
+      <c r="D253" s="12" t="s">
+        <v>107</v>
+      </c>
       <c r="E253" s="8"/>
       <c r="F253" s="8"/>
     </row>
     <row r="254" spans="2:6">
       <c r="B254" s="23">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C254" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D254" s="12"/>
       <c r="E254" s="8"/>
@@ -6434,10 +6439,10 @@
     </row>
     <row r="255" spans="2:6">
       <c r="B255" s="23">
-        <v>18</v>
-      </c>
-      <c r="C255" s="24" t="s">
-        <v>260</v>
+        <v>17</v>
+      </c>
+      <c r="C255" s="9" t="s">
+        <v>259</v>
       </c>
       <c r="D255" s="12"/>
       <c r="E255" s="8"/>
@@ -6445,10 +6450,10 @@
     </row>
     <row r="256" spans="2:6">
       <c r="B256" s="23">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C256" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D256" s="12"/>
       <c r="E256" s="8"/>
@@ -6456,10 +6461,10 @@
     </row>
     <row r="257" spans="2:6">
       <c r="B257" s="23">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C257" s="24" t="s">
-        <v>106</v>
+        <v>261</v>
       </c>
       <c r="D257" s="12"/>
       <c r="E257" s="8"/>
@@ -6467,10 +6472,10 @@
     </row>
     <row r="258" spans="2:6">
       <c r="B258" s="23">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C258" s="24" t="s">
-        <v>262</v>
+        <v>106</v>
       </c>
       <c r="D258" s="12"/>
       <c r="E258" s="8"/>
@@ -6478,10 +6483,10 @@
     </row>
     <row r="259" spans="2:6">
       <c r="B259" s="23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C259" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D259" s="12"/>
       <c r="E259" s="8"/>
@@ -6489,10 +6494,10 @@
     </row>
     <row r="260" spans="2:6">
       <c r="B260" s="23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C260" s="24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D260" s="12"/>
       <c r="E260" s="8"/>
@@ -6500,10 +6505,10 @@
     </row>
     <row r="261" spans="2:6">
       <c r="B261" s="23">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C261" s="24" t="s">
-        <v>125</v>
+        <v>264</v>
       </c>
       <c r="D261" s="12"/>
       <c r="E261" s="8"/>
@@ -6511,120 +6516,120 @@
     </row>
     <row r="262" spans="2:6">
       <c r="B262" s="23">
-        <v>25</v>
-      </c>
-      <c r="C262" s="9" t="s">
-        <v>265</v>
+        <v>24</v>
+      </c>
+      <c r="C262" s="24" t="s">
+        <v>125</v>
       </c>
       <c r="D262" s="12"/>
       <c r="E262" s="8"/>
       <c r="F262" s="8"/>
     </row>
     <row r="263" spans="2:6">
-      <c r="B263" s="91" t="s">
+      <c r="B263" s="23">
+        <v>25</v>
+      </c>
+      <c r="C263" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D263" s="12"/>
+      <c r="E263" s="8"/>
+      <c r="F263" s="8"/>
+    </row>
+    <row r="264" spans="2:6">
+      <c r="B264" s="97" t="s">
         <v>266</v>
       </c>
-      <c r="C263" s="91"/>
-      <c r="D263" s="91"/>
-      <c r="E263" s="91"/>
-      <c r="F263" s="91"/>
-    </row>
-    <row r="264" spans="2:6">
-      <c r="B264" s="5" t="s">
+      <c r="C264" s="97"/>
+      <c r="D264" s="97"/>
+      <c r="E264" s="97"/>
+      <c r="F264" s="97"/>
+    </row>
+    <row r="265" spans="2:6">
+      <c r="B265" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C264" s="5" t="s">
+      <c r="C265" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D264" s="5" t="s">
+      <c r="D265" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E264" s="5" t="s">
+      <c r="E265" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F264" s="5" t="s">
+      <c r="F265" s="5" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="265" spans="2:6">
-      <c r="B265" s="23">
-        <v>1</v>
-      </c>
-      <c r="C265" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D265" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="E265" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F265" s="12" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="266" spans="2:6">
       <c r="B266" s="23">
-        <v>2</v>
-      </c>
-      <c r="C266" s="16" t="s">
-        <v>145</v>
+        <v>1</v>
+      </c>
+      <c r="C266" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="D266" s="12" t="s">
-        <v>46</v>
+        <v>243</v>
       </c>
       <c r="E266" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F266" s="12" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="267" spans="2:6">
       <c r="B267" s="23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>245</v>
+        <v>145</v>
       </c>
       <c r="D267" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="E267" s="12"/>
-      <c r="F267" s="12"/>
+        <v>46</v>
+      </c>
+      <c r="E267" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F267" s="12" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="268" spans="2:6">
       <c r="B268" s="23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D268" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="E268" s="12" t="s">
-        <v>21</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="E268" s="12"/>
       <c r="F268" s="12"/>
     </row>
     <row r="269" spans="2:6">
       <c r="B269" s="23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="D269" s="12"/>
-      <c r="E269" s="12"/>
+        <v>248</v>
+      </c>
+      <c r="D269" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E269" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="F269" s="12"/>
     </row>
     <row r="270" spans="2:6">
       <c r="B270" s="23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>204</v>
+        <v>249</v>
       </c>
       <c r="D270" s="12"/>
       <c r="E270" s="12"/>
@@ -6632,55 +6637,51 @@
     </row>
     <row r="271" spans="2:6">
       <c r="B271" s="23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="D271" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="E271" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F271" s="12" t="s">
-        <v>250</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="D271" s="12"/>
+      <c r="E271" s="12"/>
+      <c r="F271" s="12"/>
     </row>
     <row r="272" spans="2:6">
       <c r="B272" s="23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="D272" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="E272" s="12"/>
-      <c r="F272" s="12"/>
+        <v>213</v>
+      </c>
+      <c r="E272" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F272" s="12" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="273" spans="2:6">
       <c r="B273" s="23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>251</v>
+        <v>143</v>
       </c>
       <c r="D273" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="E273" s="12" t="s">
-        <v>21</v>
-      </c>
+      <c r="E273" s="12"/>
       <c r="F273" s="12"/>
     </row>
     <row r="274" spans="2:6">
       <c r="B274" s="23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D274" s="12" t="s">
         <v>107</v>
@@ -6692,218 +6693,218 @@
     </row>
     <row r="275" spans="2:6">
       <c r="B275" s="23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D275" s="12" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E275" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F275" s="12" t="s">
-        <v>51</v>
-      </c>
+      <c r="F275" s="12"/>
     </row>
     <row r="276" spans="2:6">
       <c r="B276" s="23">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D276" s="12" t="s">
-        <v>246</v>
+        <v>104</v>
       </c>
       <c r="E276" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F276" s="17"/>
+      <c r="F276" s="12" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="277" spans="2:6">
       <c r="B277" s="23">
-        <v>13</v>
-      </c>
-      <c r="C277" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D277" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E277" s="8"/>
-      <c r="F277" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="C277" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="D277" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="E277" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F277" s="17"/>
     </row>
     <row r="278" spans="2:6">
       <c r="B278" s="23">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C278" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D278" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E278" s="8"/>
       <c r="F278" s="8"/>
     </row>
     <row r="279" spans="2:6">
       <c r="B279" s="23">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C279" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="D279" s="12" t="s">
-        <v>246</v>
+        <v>256</v>
+      </c>
+      <c r="D279" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="E279" s="8"/>
       <c r="F279" s="8"/>
     </row>
     <row r="280" spans="2:6">
       <c r="B280" s="23">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C280" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="D280" s="8" t="s">
-        <v>79</v>
+        <v>267</v>
+      </c>
+      <c r="D280" s="12" t="s">
+        <v>246</v>
       </c>
       <c r="E280" s="8"/>
       <c r="F280" s="8"/>
     </row>
     <row r="281" spans="2:6">
       <c r="B281" s="23">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C281" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="D281" s="12"/>
+        <v>268</v>
+      </c>
+      <c r="D281" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="E281" s="8"/>
       <c r="F281" s="8"/>
     </row>
     <row r="282" spans="2:6">
       <c r="B282" s="23">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C282" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="D282" s="12" t="s">
-        <v>243</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="D282" s="12"/>
       <c r="E282" s="8"/>
       <c r="F282" s="8"/>
     </row>
     <row r="283" spans="2:6">
-      <c r="B283" s="25">
+      <c r="B283" s="23">
+        <v>18</v>
+      </c>
+      <c r="C283" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D283" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="E283" s="8"/>
+      <c r="F283" s="8"/>
+    </row>
+    <row r="284" spans="2:6">
+      <c r="B284" s="25">
         <v>19</v>
       </c>
-      <c r="C283" s="24" t="s">
+      <c r="C284" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="D283" s="15" t="s">
+      <c r="D284" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E283" s="15"/>
-      <c r="F283" s="15"/>
-    </row>
-    <row r="284" spans="2:6">
-      <c r="B284" s="23">
+      <c r="E284" s="15"/>
+      <c r="F284" s="15"/>
+    </row>
+    <row r="285" spans="2:6">
+      <c r="B285" s="23">
         <v>20</v>
       </c>
-      <c r="C284" s="16" t="s">
+      <c r="C285" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="D284" s="12" t="s">
+      <c r="D285" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="E284" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F284" s="17"/>
-    </row>
-    <row r="285" spans="2:6">
-      <c r="B285" s="92" t="s">
+      <c r="E285" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F285" s="17"/>
+    </row>
+    <row r="286" spans="2:6">
+      <c r="B286" s="102" t="s">
         <v>271</v>
       </c>
-      <c r="C285" s="92"/>
-      <c r="D285" s="92"/>
-      <c r="E285" s="92"/>
-      <c r="F285" s="92"/>
-    </row>
-    <row r="286" spans="2:6">
-      <c r="B286" s="19" t="s">
+      <c r="C286" s="102"/>
+      <c r="D286" s="102"/>
+      <c r="E286" s="102"/>
+      <c r="F286" s="102"/>
+    </row>
+    <row r="287" spans="2:6">
+      <c r="B287" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C286" s="5" t="s">
+      <c r="C287" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D286" s="5" t="s">
+      <c r="D287" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E286" s="5" t="s">
+      <c r="E287" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F286" s="5" t="s">
+      <c r="F287" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="287" spans="2:6">
-      <c r="B287" s="6">
+    <row r="288" spans="2:6">
+      <c r="B288" s="6">
         <v>1</v>
       </c>
-      <c r="C287" s="8" t="s">
+      <c r="C288" s="8" t="s">
         <v>272</v>
-      </c>
-      <c r="D287" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E287" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F287" s="26" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="288" spans="2:6">
-      <c r="B288" s="6"/>
-      <c r="C288" s="8" t="s">
-        <v>273</v>
       </c>
       <c r="D288" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="E288" s="8"/>
-      <c r="F288" s="8"/>
+      <c r="E288" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F288" s="26" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="289" spans="2:6">
-      <c r="B289" s="6">
-        <v>2</v>
-      </c>
+      <c r="B289" s="6"/>
       <c r="C289" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D289" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="E289" s="8" t="s">
-        <v>21</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="E289" s="8"/>
       <c r="F289" s="8"/>
     </row>
     <row r="290" spans="2:6">
       <c r="B290" s="6">
-        <v>3</v>
-      </c>
-      <c r="C290" s="9" t="s">
-        <v>115</v>
+        <v>2</v>
+      </c>
+      <c r="C290" s="8" t="s">
+        <v>274</v>
       </c>
       <c r="D290" s="8" t="s">
-        <v>16</v>
+        <v>198</v>
       </c>
       <c r="E290" s="8" t="s">
         <v>21</v>
@@ -6912,13 +6913,13 @@
     </row>
     <row r="291" spans="2:6">
       <c r="B291" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C291" s="9" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="D291" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E291" s="8" t="s">
         <v>21</v>
@@ -6927,107 +6928,105 @@
     </row>
     <row r="292" spans="2:6">
       <c r="B292" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C292" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="D292" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="E292" s="8"/>
+        <v>166</v>
+      </c>
+      <c r="D292" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E292" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="F292" s="8"/>
     </row>
     <row r="293" spans="2:6">
       <c r="B293" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C293" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="D293" s="8" t="s">
-        <v>95</v>
+        <v>275</v>
+      </c>
+      <c r="D293" s="12" t="s">
+        <v>213</v>
       </c>
       <c r="E293" s="8"/>
       <c r="F293" s="8"/>
     </row>
     <row r="294" spans="2:6">
       <c r="B294" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C294" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D294" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E294" s="8"/>
       <c r="F294" s="8"/>
     </row>
     <row r="295" spans="2:6">
       <c r="B295" s="6">
+        <v>7</v>
+      </c>
+      <c r="C295" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="D295" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E295" s="8"/>
+      <c r="F295" s="8"/>
+    </row>
+    <row r="296" spans="2:6">
+      <c r="B296" s="6">
         <v>8</v>
       </c>
-      <c r="C295" s="8" t="s">
+      <c r="C296" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="D295" s="8" t="s">
+      <c r="D296" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E295" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F295" s="8"/>
-    </row>
-    <row r="296" spans="2:6">
-      <c r="B296" s="92" t="s">
+      <c r="E296" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F296" s="8"/>
+    </row>
+    <row r="297" spans="2:6">
+      <c r="B297" s="102" t="s">
         <v>278</v>
       </c>
-      <c r="C296" s="92"/>
-      <c r="D296" s="92"/>
-      <c r="E296" s="92"/>
-      <c r="F296" s="92"/>
-    </row>
-    <row r="297" spans="2:6">
-      <c r="B297" s="19" t="s">
+      <c r="C297" s="102"/>
+      <c r="D297" s="102"/>
+      <c r="E297" s="102"/>
+      <c r="F297" s="102"/>
+    </row>
+    <row r="298" spans="2:6">
+      <c r="B298" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C297" s="5" t="s">
+      <c r="C298" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D297" s="5" t="s">
+      <c r="D298" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E297" s="5" t="s">
+      <c r="E298" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F297" s="5" t="s">
+      <c r="F298" s="5" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="298" spans="2:6">
-      <c r="B298" s="6">
-        <v>1</v>
-      </c>
-      <c r="C298" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D298" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E298" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F298" s="27" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="299" spans="2:6">
       <c r="B299" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C299" s="8" t="s">
-        <v>279</v>
+        <v>223</v>
       </c>
       <c r="D299" s="8" t="s">
         <v>243</v>
@@ -7035,29 +7034,31 @@
       <c r="E299" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F299" s="8"/>
+      <c r="F299" s="27" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="300" spans="2:6">
       <c r="B300" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C300" s="8" t="s">
-        <v>193</v>
+        <v>279</v>
       </c>
       <c r="D300" s="8" t="s">
-        <v>16</v>
+        <v>243</v>
       </c>
       <c r="E300" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F300" s="8"/>
     </row>
     <row r="301" spans="2:6">
       <c r="B301" s="6">
-        <v>5</v>
-      </c>
-      <c r="C301" s="9" t="s">
-        <v>225</v>
+        <v>3</v>
+      </c>
+      <c r="C301" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="D301" s="8" t="s">
         <v>16</v>
@@ -7065,70 +7066,79 @@
       <c r="E301" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F301" s="6"/>
+      <c r="F301" s="8"/>
     </row>
     <row r="302" spans="2:6">
       <c r="B302" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C302" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D302" s="12" t="s">
-        <v>213</v>
+        <v>225</v>
+      </c>
+      <c r="D302" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="E302" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F302" s="8"/>
+      <c r="F302" s="6"/>
     </row>
     <row r="303" spans="2:6">
       <c r="B303" s="6">
-        <v>8</v>
-      </c>
-      <c r="C303" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="D303" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E303" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="C303" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D303" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E303" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="F303" s="8"/>
     </row>
     <row r="304" spans="2:6">
       <c r="B304" s="6">
+        <v>8</v>
+      </c>
+      <c r="C304" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="D304" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E304" s="8"/>
+      <c r="F304" s="8"/>
+    </row>
+    <row r="305" spans="2:6">
+      <c r="B305" s="6">
         <v>9</v>
       </c>
-      <c r="C304" s="21" t="s">
+      <c r="C305" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D304" s="8" t="s">
+      <c r="D305" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E304" s="11"/>
-      <c r="F304" s="11"/>
+      <c r="E305" s="11"/>
+      <c r="F305" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="B236:F236"/>
-    <mergeCell ref="B114:F114"/>
-    <mergeCell ref="B133:F133"/>
-    <mergeCell ref="B155:F155"/>
-    <mergeCell ref="B163:F163"/>
-    <mergeCell ref="B176:F176"/>
-    <mergeCell ref="B263:F263"/>
-    <mergeCell ref="B285:F285"/>
-    <mergeCell ref="B296:F296"/>
+  <mergeCells count="42">
+    <mergeCell ref="A194:A206"/>
+    <mergeCell ref="A207:A215"/>
+    <mergeCell ref="A216:A225"/>
+    <mergeCell ref="A226:A236"/>
+    <mergeCell ref="B134:F134"/>
+    <mergeCell ref="B194:F194"/>
+    <mergeCell ref="B207:F207"/>
+    <mergeCell ref="B216:F216"/>
+    <mergeCell ref="B226:F226"/>
+    <mergeCell ref="C177:F177"/>
+    <mergeCell ref="B264:F264"/>
+    <mergeCell ref="B286:F286"/>
+    <mergeCell ref="B297:F297"/>
     <mergeCell ref="A4:A17"/>
     <mergeCell ref="A18:A23"/>
     <mergeCell ref="A24:A30"/>
@@ -7141,16 +7151,23 @@
     <mergeCell ref="A133:A154"/>
     <mergeCell ref="A155:A162"/>
     <mergeCell ref="A163:A175"/>
-    <mergeCell ref="A176:A192"/>
-    <mergeCell ref="A193:A205"/>
-    <mergeCell ref="A206:A214"/>
-    <mergeCell ref="A215:A224"/>
-    <mergeCell ref="A225:A235"/>
-    <mergeCell ref="B134:F134"/>
-    <mergeCell ref="B193:F193"/>
-    <mergeCell ref="B206:F206"/>
-    <mergeCell ref="B215:F215"/>
-    <mergeCell ref="B225:F225"/>
+    <mergeCell ref="A176:A193"/>
+    <mergeCell ref="B237:F237"/>
+    <mergeCell ref="B114:F114"/>
+    <mergeCell ref="B133:F133"/>
+    <mergeCell ref="B155:F155"/>
+    <mergeCell ref="B163:F163"/>
+    <mergeCell ref="B176:F176"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B24:F24"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
